--- a/country_list.xlsx
+++ b/country_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christina/Desktop/UoOttawa/Re_ Assistance with Recoding Variables in Social and Cultural Values Survey Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christina/RecodingRData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B653FC-F199-B845-8A80-469DFFBFD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF37EDF-7EE6-A442-B689-BDA7A61B03E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="12520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15800" yWindow="4540" windowWidth="10000" windowHeight="12520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Country</t>
   </si>
@@ -616,6 +616,24 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine </t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Peurto Rico</t>
+  </si>
+  <si>
+    <t>Multiple Countries</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -794,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2374,6 +2392,54 @@
         <v>195</v>
       </c>
     </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
